--- a/data/pca/factorExposure/factorExposure_2008-12-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-24.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0201251570474996</v>
+        <v>-0.01840336962793387</v>
       </c>
       <c r="C2">
-        <v>-0.01041238021357612</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.01263830540641445</v>
+      </c>
+      <c r="D2">
+        <v>0.01244236484276254</v>
+      </c>
+      <c r="E2">
+        <v>0.01681228881177136</v>
+      </c>
+      <c r="F2">
+        <v>-0.004525200745379254</v>
+      </c>
+      <c r="G2">
+        <v>0.01776365512880764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.08015040411879779</v>
+        <v>-0.08308576770152619</v>
       </c>
       <c r="C4">
-        <v>-0.08423673659173475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.0873764969541146</v>
+      </c>
+      <c r="D4">
+        <v>-0.0599243337574546</v>
+      </c>
+      <c r="E4">
+        <v>0.03414639254318858</v>
+      </c>
+      <c r="F4">
+        <v>-0.02112716737617723</v>
+      </c>
+      <c r="G4">
+        <v>0.02268467224259659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.004575023641994917</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.001246635407877114</v>
+      </c>
+      <c r="D5">
+        <v>-0.0002034645199404604</v>
+      </c>
+      <c r="E5">
+        <v>-0.005944095156691472</v>
+      </c>
+      <c r="F5">
+        <v>-0.002406752058056726</v>
+      </c>
+      <c r="G5">
+        <v>-0.005702499165396094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.16924511274723</v>
+        <v>-0.1702370831198167</v>
       </c>
       <c r="C6">
-        <v>0.0197263715448044</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.00843152468384974</v>
+      </c>
+      <c r="D6">
+        <v>-0.06501136092249403</v>
+      </c>
+      <c r="E6">
+        <v>-0.06136848336853124</v>
+      </c>
+      <c r="F6">
+        <v>-0.02988688567446626</v>
+      </c>
+      <c r="G6">
+        <v>-0.01364674254264259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05246092569391254</v>
+        <v>-0.05457526489657129</v>
       </c>
       <c r="C7">
-        <v>-0.05672842764020613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.06007460689478237</v>
+      </c>
+      <c r="D7">
+        <v>-0.06788123103410316</v>
+      </c>
+      <c r="E7">
+        <v>0.07337671598087027</v>
+      </c>
+      <c r="F7">
+        <v>0.007722664512109552</v>
+      </c>
+      <c r="G7">
+        <v>0.06715553195142876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.04739547853451213</v>
+        <v>-0.0461071819674455</v>
       </c>
       <c r="C8">
-        <v>-0.05282973039583991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.05227069353536951</v>
+      </c>
+      <c r="D8">
+        <v>0.01568768207797925</v>
+      </c>
+      <c r="E8">
+        <v>0.03498765757111238</v>
+      </c>
+      <c r="F8">
+        <v>0.01266227978713215</v>
+      </c>
+      <c r="G8">
+        <v>0.001837510438821512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.05735971678547745</v>
+        <v>-0.06192772469333536</v>
       </c>
       <c r="C9">
-        <v>-0.09242780739205864</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.09358252261033694</v>
+      </c>
+      <c r="D9">
+        <v>-0.09091804810440142</v>
+      </c>
+      <c r="E9">
+        <v>0.05044440076641138</v>
+      </c>
+      <c r="F9">
+        <v>-0.005743969977154452</v>
+      </c>
+      <c r="G9">
+        <v>-0.001484846853048461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1181402267885428</v>
+        <v>-0.1035177019509627</v>
       </c>
       <c r="C10">
-        <v>0.1468199265561412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.1324240939065786</v>
+      </c>
+      <c r="D10">
+        <v>0.09507785948313516</v>
+      </c>
+      <c r="E10">
+        <v>0.05586808337893293</v>
+      </c>
+      <c r="F10">
+        <v>0.02694528079841245</v>
+      </c>
+      <c r="G10">
+        <v>-0.0130183956569348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.07851817654959631</v>
+        <v>-0.07558801624336932</v>
       </c>
       <c r="C11">
-        <v>-0.1363261186525232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.1357137344764044</v>
+      </c>
+      <c r="D11">
+        <v>-0.05235377668551929</v>
+      </c>
+      <c r="E11">
+        <v>0.0647205004285043</v>
+      </c>
+      <c r="F11">
+        <v>-0.0003090436154861496</v>
+      </c>
+      <c r="G11">
+        <v>-0.01151379227414456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.07932437990487</v>
+        <v>-0.0751613530157741</v>
       </c>
       <c r="C12">
-        <v>-0.1648166408422199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.160809452107481</v>
+      </c>
+      <c r="D12">
+        <v>-0.05764377536421075</v>
+      </c>
+      <c r="E12">
+        <v>0.06620712013532025</v>
+      </c>
+      <c r="F12">
+        <v>0.007121573575045586</v>
+      </c>
+      <c r="G12">
+        <v>0.01539278364431298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.03911573602080843</v>
+        <v>-0.04087677692731158</v>
       </c>
       <c r="C13">
-        <v>-0.06987186448530254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.0747795112763328</v>
+      </c>
+      <c r="D13">
+        <v>-0.03810890121311821</v>
+      </c>
+      <c r="E13">
+        <v>0.07277804019021011</v>
+      </c>
+      <c r="F13">
+        <v>0.01208289405831155</v>
+      </c>
+      <c r="G13">
+        <v>0.02572413481136799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.02103491780528036</v>
+        <v>-0.02321896880650048</v>
       </c>
       <c r="C14">
-        <v>-0.04954139890657073</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.05164573756215197</v>
+      </c>
+      <c r="D14">
+        <v>-0.0466271214191536</v>
+      </c>
+      <c r="E14">
+        <v>0.06958093352529041</v>
+      </c>
+      <c r="F14">
+        <v>0.005435928983514502</v>
+      </c>
+      <c r="G14">
+        <v>-0.01463541432950091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03338215979348007</v>
+        <v>-0.03322219987701315</v>
       </c>
       <c r="C15">
-        <v>-0.06520191330540444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.06256012755168348</v>
+      </c>
+      <c r="D15">
+        <v>-0.04707200706380021</v>
+      </c>
+      <c r="E15">
+        <v>0.01692601638885251</v>
+      </c>
+      <c r="F15">
+        <v>0.02030822468330238</v>
+      </c>
+      <c r="G15">
+        <v>0.01404405703361688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0553980976024069</v>
+        <v>-0.05388760638881465</v>
       </c>
       <c r="C16">
-        <v>-0.1578083439546116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.1570034494661193</v>
+      </c>
+      <c r="D16">
+        <v>-0.05454252892037856</v>
+      </c>
+      <c r="E16">
+        <v>0.05335020946117868</v>
+      </c>
+      <c r="F16">
+        <v>-0.01762683293919779</v>
+      </c>
+      <c r="G16">
+        <v>-0.02093438237265208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.007785651146789038</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.004565078271903949</v>
+      </c>
+      <c r="D17">
+        <v>0.00429919865289142</v>
+      </c>
+      <c r="E17">
+        <v>-0.01190702959856191</v>
+      </c>
+      <c r="F17">
+        <v>0.009782940841358388</v>
+      </c>
+      <c r="G17">
+        <v>-0.006578547337868161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>-0.04482970061267165</v>
+        <v>-0.05551099449604271</v>
       </c>
       <c r="C18">
-        <v>-0.05420243141035017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.04916768865253591</v>
+      </c>
+      <c r="D18">
+        <v>0.004669240662721879</v>
+      </c>
+      <c r="E18">
+        <v>-0.06115918972763775</v>
+      </c>
+      <c r="F18">
+        <v>-0.003245361013098243</v>
+      </c>
+      <c r="G18">
+        <v>-0.01114413712454419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.05752851730762459</v>
+        <v>-0.05642270002952379</v>
       </c>
       <c r="C20">
-        <v>-0.1061156870669762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.1036880904580525</v>
+      </c>
+      <c r="D20">
+        <v>-0.07440046748526882</v>
+      </c>
+      <c r="E20">
+        <v>0.05657155382110069</v>
+      </c>
+      <c r="F20">
+        <v>0.005257081126155365</v>
+      </c>
+      <c r="G20">
+        <v>0.0008808798528433221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.04271392324918695</v>
+        <v>-0.04436399477920959</v>
       </c>
       <c r="C21">
-        <v>-0.06963670161306462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.06596264290446691</v>
+      </c>
+      <c r="D21">
+        <v>-0.02615639385545403</v>
+      </c>
+      <c r="E21">
+        <v>0.05483454321369517</v>
+      </c>
+      <c r="F21">
+        <v>-0.001134030451829378</v>
+      </c>
+      <c r="G21">
+        <v>0.02199977596405655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.04472598128019855</v>
+        <v>-0.04480825078034816</v>
       </c>
       <c r="C22">
-        <v>-0.03716743150955012</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04068388444721174</v>
+      </c>
+      <c r="D22">
+        <v>0.09920693637057103</v>
+      </c>
+      <c r="E22">
+        <v>-0.05266926507649791</v>
+      </c>
+      <c r="F22">
+        <v>-0.1107555680095515</v>
+      </c>
+      <c r="G22">
+        <v>-0.1164154493262285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.04473582386855406</v>
+        <v>-0.0448168140742528</v>
       </c>
       <c r="C23">
-        <v>-0.03716104371421388</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04067836809064925</v>
+      </c>
+      <c r="D23">
+        <v>0.09924778458397937</v>
+      </c>
+      <c r="E23">
+        <v>-0.052669023713923</v>
+      </c>
+      <c r="F23">
+        <v>-0.1107516786884201</v>
+      </c>
+      <c r="G23">
+        <v>-0.1164808824638978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06487802061684529</v>
+        <v>-0.06304062726024799</v>
       </c>
       <c r="C24">
-        <v>-0.1424182054832718</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.1398457894765351</v>
+      </c>
+      <c r="D24">
+        <v>-0.05926040106929678</v>
+      </c>
+      <c r="E24">
+        <v>0.06220885570821945</v>
+      </c>
+      <c r="F24">
+        <v>-0.005262168930475839</v>
+      </c>
+      <c r="G24">
+        <v>-0.001141610153683752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.07094863479973244</v>
+        <v>-0.0681924291020201</v>
       </c>
       <c r="C25">
-        <v>-0.1285476197235557</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.1265751501001763</v>
+      </c>
+      <c r="D25">
+        <v>-0.04778868501798089</v>
+      </c>
+      <c r="E25">
+        <v>0.07996540482476532</v>
+      </c>
+      <c r="F25">
+        <v>0.02125106265500517</v>
+      </c>
+      <c r="G25">
+        <v>0.02786845682364211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.05739929238167898</v>
+        <v>-0.06092350870308877</v>
       </c>
       <c r="C26">
-        <v>-0.07328200777304218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.07770641601302149</v>
+      </c>
+      <c r="D26">
+        <v>-0.02396339524402346</v>
+      </c>
+      <c r="E26">
+        <v>0.0768822442746626</v>
+      </c>
+      <c r="F26">
+        <v>0.01446666031907119</v>
+      </c>
+      <c r="G26">
+        <v>0.01444727953182308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1741290691200031</v>
+        <v>-0.1782311600238356</v>
       </c>
       <c r="C28">
-        <v>0.2257328020678185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.2258480997823373</v>
+      </c>
+      <c r="D28">
+        <v>-0.0004974253863154572</v>
+      </c>
+      <c r="E28">
+        <v>0.1518951569133673</v>
+      </c>
+      <c r="F28">
+        <v>0.05932599400074982</v>
+      </c>
+      <c r="G28">
+        <v>0.01358105486426894</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.02499774999284769</v>
+        <v>-0.02667124911307293</v>
       </c>
       <c r="C29">
-        <v>-0.0556440082990902</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.05483839117477438</v>
+      </c>
+      <c r="D29">
+        <v>-0.01152425022475423</v>
+      </c>
+      <c r="E29">
+        <v>0.06886769768336135</v>
+      </c>
+      <c r="F29">
+        <v>0.002870773371398582</v>
+      </c>
+      <c r="G29">
+        <v>-0.01348535058135949</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03170436432997845</v>
+        <v>-0.03436849846841599</v>
       </c>
       <c r="C30">
-        <v>-0.06514374276278158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.07192408824551079</v>
+      </c>
+      <c r="D30">
+        <v>-0.1344830200891107</v>
+      </c>
+      <c r="E30">
+        <v>0.06424735930716093</v>
+      </c>
+      <c r="F30">
+        <v>0.04891924952444878</v>
+      </c>
+      <c r="G30">
+        <v>0.037699052639751</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05389986845668326</v>
+        <v>-0.05277561630557587</v>
       </c>
       <c r="C31">
-        <v>-0.0375676539733771</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.03975443839031259</v>
+      </c>
+      <c r="D31">
+        <v>-0.004024219079930932</v>
+      </c>
+      <c r="E31">
+        <v>0.02045245825623562</v>
+      </c>
+      <c r="F31">
+        <v>-0.0478470867541081</v>
+      </c>
+      <c r="G31">
+        <v>-0.02023189177947805</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.04218572935362557</v>
+        <v>-0.04599193112282842</v>
       </c>
       <c r="C32">
-        <v>-0.05975918231438313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.05616061971528855</v>
+      </c>
+      <c r="D32">
+        <v>-0.01609106213614304</v>
+      </c>
+      <c r="E32">
+        <v>0.001732142720730574</v>
+      </c>
+      <c r="F32">
+        <v>0.01734870349367794</v>
+      </c>
+      <c r="G32">
+        <v>0.01498277327747518</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07693201475810026</v>
+        <v>-0.08085343830894104</v>
       </c>
       <c r="C33">
-        <v>-0.1150525485754217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.1238497165643355</v>
+      </c>
+      <c r="D33">
+        <v>-0.07020005515709322</v>
+      </c>
+      <c r="E33">
+        <v>0.06183298087526506</v>
+      </c>
+      <c r="F33">
+        <v>-0.01189321536498699</v>
+      </c>
+      <c r="G33">
+        <v>-0.02694380142269721</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05290327460655927</v>
+        <v>-0.05173156699228199</v>
       </c>
       <c r="C34">
-        <v>-0.1323587596722641</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.1314339349716576</v>
+      </c>
+      <c r="D34">
+        <v>-0.08928840182421648</v>
+      </c>
+      <c r="E34">
+        <v>0.06012010099236407</v>
+      </c>
+      <c r="F34">
+        <v>0.02392893313181851</v>
+      </c>
+      <c r="G34">
+        <v>-0.03026932137639182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.027199621861682</v>
+        <v>-0.02950938428733705</v>
       </c>
       <c r="C35">
-        <v>-0.02118188279552889</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.02373862417278319</v>
+      </c>
+      <c r="D35">
+        <v>-0.00952680863538609</v>
+      </c>
+      <c r="E35">
+        <v>0.02077401921702474</v>
+      </c>
+      <c r="F35">
+        <v>0.01482350493040907</v>
+      </c>
+      <c r="G35">
+        <v>-0.02190013466315215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02554572904100519</v>
+        <v>-0.02780080070518874</v>
       </c>
       <c r="C36">
-        <v>-0.05603788975713351</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.05465494934728968</v>
+      </c>
+      <c r="D36">
+        <v>-0.05811591243410934</v>
+      </c>
+      <c r="E36">
+        <v>-0.006018394169267716</v>
+      </c>
+      <c r="F36">
+        <v>0.02559211004886532</v>
+      </c>
+      <c r="G36">
+        <v>-0.08525021988315103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-0.000532998088772914</v>
+        <v>-0.004121681790723036</v>
       </c>
       <c r="C37">
-        <v>0.0004956127819490033</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.007968223044787831</v>
+      </c>
+      <c r="D37">
+        <v>-0.002117729418643324</v>
+      </c>
+      <c r="E37">
+        <v>0.01127296917984678</v>
+      </c>
+      <c r="F37">
+        <v>-0.00273342297649039</v>
+      </c>
+      <c r="G37">
+        <v>0.003492629803394386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.07966216452067879</v>
+        <v>-0.07443644723411774</v>
       </c>
       <c r="C39">
-        <v>-0.1566276937212703</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.1505533272412914</v>
+      </c>
+      <c r="D39">
+        <v>-0.02505866761699285</v>
+      </c>
+      <c r="E39">
+        <v>0.1255961653872927</v>
+      </c>
+      <c r="F39">
+        <v>-0.03345336377619328</v>
+      </c>
+      <c r="G39">
+        <v>0.01257583597727502</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.04992190075496049</v>
+        <v>-0.05228494997331722</v>
       </c>
       <c r="C40">
-        <v>-0.0732822151021677</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.07967417437439753</v>
+      </c>
+      <c r="D40">
+        <v>-0.01107936380877186</v>
+      </c>
+      <c r="E40">
+        <v>0.03881390156935942</v>
+      </c>
+      <c r="F40">
+        <v>0.04649463685007859</v>
+      </c>
+      <c r="G40">
+        <v>-0.009005661717549457</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02964671883261982</v>
+        <v>-0.02956789395769493</v>
       </c>
       <c r="C41">
-        <v>-0.02438323209986781</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.02567056347395043</v>
+      </c>
+      <c r="D41">
+        <v>0.01029019926575348</v>
+      </c>
+      <c r="E41">
+        <v>-0.01200470583397863</v>
+      </c>
+      <c r="F41">
+        <v>0.01011487470021646</v>
+      </c>
+      <c r="G41">
+        <v>-0.001775746563895399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04368170092800503</v>
+        <v>-0.04209588469940289</v>
       </c>
       <c r="C43">
-        <v>-0.04266800327933224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.03950604053235553</v>
+      </c>
+      <c r="D43">
+        <v>0.01349183647411535</v>
+      </c>
+      <c r="E43">
+        <v>0.01723196600652103</v>
+      </c>
+      <c r="F43">
+        <v>-0.02552264104402088</v>
+      </c>
+      <c r="G43">
+        <v>-0.03618727775371205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.05658985359386912</v>
+        <v>-0.06041214269963419</v>
       </c>
       <c r="C44">
-        <v>-0.08738473893463243</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.0904740308675288</v>
+      </c>
+      <c r="D44">
+        <v>-0.2926006555825049</v>
+      </c>
+      <c r="E44">
+        <v>0.07897167870222382</v>
+      </c>
+      <c r="F44">
+        <v>0.1090046931634769</v>
+      </c>
+      <c r="G44">
+        <v>-0.1376960905321067</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0004713637065740157</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.001153348371297627</v>
+      </c>
+      <c r="D45">
+        <v>-0.0001398976831058865</v>
+      </c>
+      <c r="E45">
+        <v>0.001397814557101933</v>
+      </c>
+      <c r="F45">
+        <v>-0.004698340082278828</v>
+      </c>
+      <c r="G45">
+        <v>0.004614994617124402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02860583289442979</v>
+        <v>-0.02997577406487392</v>
       </c>
       <c r="C46">
-        <v>-0.04544962651922391</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.04150622679670147</v>
+      </c>
+      <c r="D46">
+        <v>-0.00332869770675586</v>
+      </c>
+      <c r="E46">
+        <v>0.06362350535096396</v>
+      </c>
+      <c r="F46">
+        <v>-0.03739710110611053</v>
+      </c>
+      <c r="G46">
+        <v>-0.01660332512516529</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0564028861806491</v>
+        <v>-0.05386788328298591</v>
       </c>
       <c r="C47">
-        <v>-0.04352592272151365</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.04219271952598903</v>
+      </c>
+      <c r="D47">
+        <v>0.03022276363725997</v>
+      </c>
+      <c r="E47">
+        <v>-0.0130294319466506</v>
+      </c>
+      <c r="F47">
+        <v>-0.06191778581445002</v>
+      </c>
+      <c r="G47">
+        <v>-0.03413623854133432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.04696884477131086</v>
+        <v>-0.04885793534377115</v>
       </c>
       <c r="C48">
-        <v>-0.07311963255126125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.072060523263606</v>
+      </c>
+      <c r="D48">
+        <v>-0.03588493450840421</v>
+      </c>
+      <c r="E48">
+        <v>0.05865630409094538</v>
+      </c>
+      <c r="F48">
+        <v>-0.0003737246373915224</v>
+      </c>
+      <c r="G48">
+        <v>0.03538492112565957</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1840153778112637</v>
+        <v>-0.1914725770100623</v>
       </c>
       <c r="C49">
-        <v>0.02828201076940552</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.02421035739905503</v>
+      </c>
+      <c r="D49">
+        <v>-0.03005702619439042</v>
+      </c>
+      <c r="E49">
+        <v>-0.01859408299841706</v>
+      </c>
+      <c r="F49">
+        <v>0.04771375270851746</v>
+      </c>
+      <c r="G49">
+        <v>0.07096075721708375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.05322256546468299</v>
+        <v>-0.05272510625089512</v>
       </c>
       <c r="C50">
-        <v>-0.03666408965656962</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.03964085605291809</v>
+      </c>
+      <c r="D50">
+        <v>-0.01946587902044115</v>
+      </c>
+      <c r="E50">
+        <v>0.01114948373086126</v>
+      </c>
+      <c r="F50">
+        <v>-0.04254768576628228</v>
+      </c>
+      <c r="G50">
+        <v>-0.007755166275313785</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>-0.1410166024938451</v>
+        <v>-0.1361662321953269</v>
       </c>
       <c r="C52">
-        <v>-0.03552423716868099</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.03383335502183211</v>
+      </c>
+      <c r="D52">
+        <v>-0.04274812942125519</v>
+      </c>
+      <c r="E52">
+        <v>-0.08265085844392901</v>
+      </c>
+      <c r="F52">
+        <v>-0.09149524720624763</v>
+      </c>
+      <c r="G52">
+        <v>-0.04038348709843653</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1683198932617299</v>
+        <v>-0.1620984542128577</v>
       </c>
       <c r="C53">
-        <v>0.01487866487772667</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.01173520570252074</v>
+      </c>
+      <c r="D53">
+        <v>-0.07410360431167359</v>
+      </c>
+      <c r="E53">
+        <v>-0.1194299742067363</v>
+      </c>
+      <c r="F53">
+        <v>-0.1435635846164076</v>
+      </c>
+      <c r="G53">
+        <v>-0.03815410899775452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01110306163779679</v>
+        <v>-0.01301856980971487</v>
       </c>
       <c r="C54">
-        <v>-0.0415740334205509</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.04233935026309355</v>
+      </c>
+      <c r="D54">
+        <v>-0.01969394882165701</v>
+      </c>
+      <c r="E54">
+        <v>0.03701993269398465</v>
+      </c>
+      <c r="F54">
+        <v>-0.006992369536466528</v>
+      </c>
+      <c r="G54">
+        <v>0.001384238724027121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.1224007260103008</v>
+        <v>-0.1202751234010462</v>
       </c>
       <c r="C55">
-        <v>-0.01548177834520098</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01775571616927775</v>
+      </c>
+      <c r="D55">
+        <v>-0.05584547266587978</v>
+      </c>
+      <c r="E55">
+        <v>-0.05048868838357577</v>
+      </c>
+      <c r="F55">
+        <v>-0.1495258361137466</v>
+      </c>
+      <c r="G55">
+        <v>-0.05547161215500931</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1803645566108986</v>
+        <v>-0.1755206420008861</v>
       </c>
       <c r="C56">
-        <v>0.00957679815669841</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.01023101865291678</v>
+      </c>
+      <c r="D56">
+        <v>-0.02323365799656412</v>
+      </c>
+      <c r="E56">
+        <v>-0.1501385542709673</v>
+      </c>
+      <c r="F56">
+        <v>-0.1479119741432651</v>
+      </c>
+      <c r="G56">
+        <v>-0.02063197090866069</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04179084228425387</v>
+        <v>-0.04083340064845088</v>
       </c>
       <c r="C58">
-        <v>-0.09742762204237435</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.1079991793118155</v>
+      </c>
+      <c r="D58">
+        <v>0.002689621093434186</v>
+      </c>
+      <c r="E58">
+        <v>0.03914658682404072</v>
+      </c>
+      <c r="F58">
+        <v>-0.02052503782516504</v>
+      </c>
+      <c r="G58">
+        <v>-0.005391158397020599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1836350250396653</v>
+        <v>-0.1913722309564546</v>
       </c>
       <c r="C59">
-        <v>0.1592473324609615</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.1693171099472004</v>
+      </c>
+      <c r="D59">
+        <v>0.08342503061802617</v>
+      </c>
+      <c r="E59">
+        <v>0.07914505272624953</v>
+      </c>
+      <c r="F59">
+        <v>-0.01349942590682806</v>
+      </c>
+      <c r="G59">
+        <v>0.03613572835194155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2084639526797188</v>
+        <v>-0.2067393229225908</v>
       </c>
       <c r="C60">
-        <v>0.003070432003826598</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.001754722048818822</v>
+      </c>
+      <c r="D60">
+        <v>0.06900455185650971</v>
+      </c>
+      <c r="E60">
+        <v>-0.1376473391598189</v>
+      </c>
+      <c r="F60">
+        <v>-0.05201432970056433</v>
+      </c>
+      <c r="G60">
+        <v>0.118465679762447</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.06118256474721825</v>
+        <v>-0.05908977126287348</v>
       </c>
       <c r="C61">
-        <v>-0.1320588540333341</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.1290999391915334</v>
+      </c>
+      <c r="D61">
+        <v>-0.02463613058334387</v>
+      </c>
+      <c r="E61">
+        <v>0.07399317583828945</v>
+      </c>
+      <c r="F61">
+        <v>-0.004230892364040837</v>
+      </c>
+      <c r="G61">
+        <v>0.01870088971637761</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1701403981119321</v>
+        <v>-0.1664438566582937</v>
       </c>
       <c r="C62">
-        <v>0.005226898778743285</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.004495835348635097</v>
+      </c>
+      <c r="D62">
+        <v>-0.02606953277598838</v>
+      </c>
+      <c r="E62">
+        <v>-0.1293045931598502</v>
+      </c>
+      <c r="F62">
+        <v>-0.1347696078205519</v>
+      </c>
+      <c r="G62">
+        <v>-0.02807237539884902</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.04064365568369673</v>
+        <v>-0.042959558997943</v>
       </c>
       <c r="C63">
-        <v>-0.08052630191315301</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.08444092348384957</v>
+      </c>
+      <c r="D63">
+        <v>-0.01765871757846748</v>
+      </c>
+      <c r="E63">
+        <v>0.03987021250713228</v>
+      </c>
+      <c r="F63">
+        <v>0.01986684588596852</v>
+      </c>
+      <c r="G63">
+        <v>-0.02270526782322614</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.113170294747211</v>
+        <v>-0.1103984519283191</v>
       </c>
       <c r="C64">
-        <v>-0.06308440664596821</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.06534961487324926</v>
+      </c>
+      <c r="D64">
+        <v>-0.02707115559001924</v>
+      </c>
+      <c r="E64">
+        <v>-0.05246661181600483</v>
+      </c>
+      <c r="F64">
+        <v>-0.01340740439587664</v>
+      </c>
+      <c r="G64">
+        <v>0.01978216192888667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1614003546995196</v>
+        <v>-0.1633138860795012</v>
       </c>
       <c r="C65">
-        <v>0.06053641772552064</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04782767585729098</v>
+      </c>
+      <c r="D65">
+        <v>-0.07269250059349544</v>
+      </c>
+      <c r="E65">
+        <v>-0.003922858233123007</v>
+      </c>
+      <c r="F65">
+        <v>-0.04382730654006742</v>
+      </c>
+      <c r="G65">
+        <v>-0.0217334021260622</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.09613043484356056</v>
+        <v>-0.09110351205816077</v>
       </c>
       <c r="C66">
-        <v>-0.1320284908384771</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.1316718746711708</v>
+      </c>
+      <c r="D66">
+        <v>-0.02471766544516358</v>
+      </c>
+      <c r="E66">
+        <v>0.09798390559559936</v>
+      </c>
+      <c r="F66">
+        <v>0.01887513112226744</v>
+      </c>
+      <c r="G66">
+        <v>-0.006294376025854934</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05058299525607891</v>
+        <v>-0.04386428039175825</v>
       </c>
       <c r="C67">
-        <v>-0.08483889723160587</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.07776068021277804</v>
+      </c>
+      <c r="D67">
+        <v>0.07034053932300231</v>
+      </c>
+      <c r="E67">
+        <v>-0.0303200951651405</v>
+      </c>
+      <c r="F67">
+        <v>-0.04814033825788857</v>
+      </c>
+      <c r="G67">
+        <v>-0.05701837309126648</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1454379247469744</v>
+        <v>-0.1467616523725456</v>
       </c>
       <c r="C68">
-        <v>0.2456098915162263</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.2434108476353089</v>
+      </c>
+      <c r="D68">
+        <v>-0.003580907822420182</v>
+      </c>
+      <c r="E68">
+        <v>0.1474646205723959</v>
+      </c>
+      <c r="F68">
+        <v>0.06787430607595106</v>
+      </c>
+      <c r="G68">
+        <v>0.06503292569851221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.04012342913139741</v>
+        <v>-0.03823621685332017</v>
       </c>
       <c r="C69">
-        <v>-0.01512913142172206</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01803697607273184</v>
+      </c>
+      <c r="D69">
+        <v>0.0102820416501197</v>
+      </c>
+      <c r="E69">
+        <v>-0.05332342915946119</v>
+      </c>
+      <c r="F69">
+        <v>-0.03909094663220705</v>
+      </c>
+      <c r="G69">
+        <v>-0.06050641385375474</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.07494345615391074</v>
+        <v>-0.0723699010874144</v>
       </c>
       <c r="C70">
-        <v>-0.09722364761259666</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.09783657410988979</v>
+      </c>
+      <c r="D70">
+        <v>0.5484275268241982</v>
+      </c>
+      <c r="E70">
+        <v>-0.1676211524582591</v>
+      </c>
+      <c r="F70">
+        <v>-0.2700480208810271</v>
+      </c>
+      <c r="G70">
+        <v>0.5077290644718065</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1697326534033448</v>
+        <v>-0.1722204788629041</v>
       </c>
       <c r="C71">
-        <v>0.2500911206682567</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.2482913861503369</v>
+      </c>
+      <c r="D71">
+        <v>0.004415117605861241</v>
+      </c>
+      <c r="E71">
+        <v>0.1515124659400055</v>
+      </c>
+      <c r="F71">
+        <v>0.07813270545002385</v>
+      </c>
+      <c r="G71">
+        <v>0.07588621983583692</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1455629782424915</v>
+        <v>-0.1503007965114329</v>
       </c>
       <c r="C72">
-        <v>-0.00822110597002129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.007402873451981983</v>
+      </c>
+      <c r="D72">
+        <v>-0.04208040131279606</v>
+      </c>
+      <c r="E72">
+        <v>-0.0358680621172887</v>
+      </c>
+      <c r="F72">
+        <v>-0.0686479475023596</v>
+      </c>
+      <c r="G72">
+        <v>-0.0861843186076441</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1875626377234359</v>
+        <v>-0.1970568259892707</v>
       </c>
       <c r="C73">
-        <v>-0.01597563432957484</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.02114744975117128</v>
+      </c>
+      <c r="D73">
+        <v>-0.02500103639309283</v>
+      </c>
+      <c r="E73">
+        <v>-0.09605075423780894</v>
+      </c>
+      <c r="F73">
+        <v>-0.03746960711359589</v>
+      </c>
+      <c r="G73">
+        <v>-0.0379697306015024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08724076890558519</v>
+        <v>-0.08629725977506303</v>
       </c>
       <c r="C74">
-        <v>-0.004564047657188735</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.0110156041944119</v>
+      </c>
+      <c r="D74">
+        <v>-0.06687488189533851</v>
+      </c>
+      <c r="E74">
+        <v>-0.08949146883508838</v>
+      </c>
+      <c r="F74">
+        <v>-0.0532963700855878</v>
+      </c>
+      <c r="G74">
+        <v>-0.03269622753666388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.121950391474324</v>
+        <v>-0.1143990068799056</v>
       </c>
       <c r="C75">
-        <v>-0.02499871169448313</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.0260507459046949</v>
+      </c>
+      <c r="D75">
+        <v>-0.0230783042136184</v>
+      </c>
+      <c r="E75">
+        <v>-0.08152798349106181</v>
+      </c>
+      <c r="F75">
+        <v>-0.1210558404202384</v>
+      </c>
+      <c r="G75">
+        <v>-0.07251546484414609</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.0800538892088426</v>
+        <v>-0.08858068628320721</v>
       </c>
       <c r="C77">
-        <v>-0.1189954420500153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.12326104110334</v>
+      </c>
+      <c r="D77">
+        <v>-0.08218618512118921</v>
+      </c>
+      <c r="E77">
+        <v>0.1109880548469073</v>
+      </c>
+      <c r="F77">
+        <v>-0.05473619147040254</v>
+      </c>
+      <c r="G77">
+        <v>0.1254134172254584</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.07617239108889295</v>
+        <v>-0.08269754157874</v>
       </c>
       <c r="C78">
-        <v>-0.1266176301890779</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.1281859805781404</v>
+      </c>
+      <c r="D78">
+        <v>-0.06036671291651598</v>
+      </c>
+      <c r="E78">
+        <v>0.1098171753550886</v>
+      </c>
+      <c r="F78">
+        <v>-0.07855745608446049</v>
+      </c>
+      <c r="G78">
+        <v>-0.0009314877081448117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1685832800085318</v>
+        <v>-0.1641881437395359</v>
       </c>
       <c r="C79">
-        <v>-0.02156086539667484</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02089678734813102</v>
+      </c>
+      <c r="D79">
+        <v>-0.01382823548634225</v>
+      </c>
+      <c r="E79">
+        <v>-0.06679896488907812</v>
+      </c>
+      <c r="F79">
+        <v>-0.1055387098247546</v>
+      </c>
+      <c r="G79">
+        <v>-0.04945314692659746</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.07728056706671609</v>
+        <v>-0.07385568863182196</v>
       </c>
       <c r="C80">
-        <v>-0.0858216749117975</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.08018065307551489</v>
+      </c>
+      <c r="D80">
+        <v>0.002563021918329908</v>
+      </c>
+      <c r="E80">
+        <v>0.0547092537283574</v>
+      </c>
+      <c r="F80">
+        <v>0.08088029831694231</v>
+      </c>
+      <c r="G80">
+        <v>-0.03659415411082492</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1127784767771228</v>
+        <v>-0.1064320126820609</v>
       </c>
       <c r="C81">
-        <v>0.01218555645371255</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.01192345052084439</v>
+      </c>
+      <c r="D81">
+        <v>0.004040083646525982</v>
+      </c>
+      <c r="E81">
+        <v>-0.09682759707847657</v>
+      </c>
+      <c r="F81">
+        <v>-0.1016304583191959</v>
+      </c>
+      <c r="G81">
+        <v>-0.1024883555351641</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.16279511071878</v>
+        <v>-0.1582692660144497</v>
       </c>
       <c r="C82">
-        <v>0.0165203242143717</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.01379878612339421</v>
+      </c>
+      <c r="D82">
+        <v>-0.07867326719570494</v>
+      </c>
+      <c r="E82">
+        <v>-0.1434924947343808</v>
+      </c>
+      <c r="F82">
+        <v>-0.06253585223316886</v>
+      </c>
+      <c r="G82">
+        <v>-0.04863355466522538</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.0529871687070246</v>
+        <v>-0.04920511413577892</v>
       </c>
       <c r="C83">
-        <v>-0.06364612163067089</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.05857048554062636</v>
+      </c>
+      <c r="D83">
+        <v>0.02868553144424315</v>
+      </c>
+      <c r="E83">
+        <v>0.007547434251170426</v>
+      </c>
+      <c r="F83">
+        <v>0.001820127524737313</v>
+      </c>
+      <c r="G83">
+        <v>0.01629736904312006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.04556467301084909</v>
+        <v>-0.04480508642038147</v>
       </c>
       <c r="C84">
-        <v>-0.07576072968196393</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.07319376200944364</v>
+      </c>
+      <c r="D84">
+        <v>0.01983458462636723</v>
+      </c>
+      <c r="E84">
+        <v>-0.008562826078388687</v>
+      </c>
+      <c r="F84">
+        <v>-0.02451641106832431</v>
+      </c>
+      <c r="G84">
+        <v>0.01807401051717798</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1402891016838511</v>
+        <v>-0.1352354258545985</v>
       </c>
       <c r="C85">
-        <v>-0.006744445424622139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.008295853899930976</v>
+      </c>
+      <c r="D85">
+        <v>-0.08010417836128396</v>
+      </c>
+      <c r="E85">
+        <v>-0.06283028327593522</v>
+      </c>
+      <c r="F85">
+        <v>-0.09999906168271926</v>
+      </c>
+      <c r="G85">
+        <v>-0.06049382897316254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.07714810005125225</v>
+        <v>-0.07803766906981899</v>
       </c>
       <c r="C86">
-        <v>-0.1653033069766776</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.1687074162852528</v>
+      </c>
+      <c r="D86">
+        <v>0.5873598211188525</v>
+      </c>
+      <c r="E86">
+        <v>0.4636770386566428</v>
+      </c>
+      <c r="F86">
+        <v>-0.03552181768424582</v>
+      </c>
+      <c r="G86">
+        <v>-0.4837962153890412</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.0910137442433888</v>
+        <v>-0.08595695227184719</v>
       </c>
       <c r="C87">
-        <v>-0.105376285098016</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.103354080050294</v>
+      </c>
+      <c r="D87">
+        <v>-0.1195956105884974</v>
+      </c>
+      <c r="E87">
+        <v>0.08602262572760448</v>
+      </c>
+      <c r="F87">
+        <v>0.1658109878119626</v>
+      </c>
+      <c r="G87">
+        <v>0.1393346497558217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05945124266832844</v>
+        <v>-0.05869710254747837</v>
       </c>
       <c r="C88">
-        <v>-0.06391369950351107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.06429205095683009</v>
+      </c>
+      <c r="D88">
+        <v>-0.008474746691444792</v>
+      </c>
+      <c r="E88">
+        <v>-0.02969172940530905</v>
+      </c>
+      <c r="F88">
+        <v>-0.02887412424651756</v>
+      </c>
+      <c r="G88">
+        <v>-0.002936576092154283</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.154582374073587</v>
+        <v>-0.1535527955407346</v>
       </c>
       <c r="C89">
-        <v>0.1955896025410263</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.2024742805769776</v>
+      </c>
+      <c r="D89">
+        <v>-0.007544788174277632</v>
+      </c>
+      <c r="E89">
+        <v>0.1015605104204041</v>
+      </c>
+      <c r="F89">
+        <v>0.06614504712263791</v>
+      </c>
+      <c r="G89">
+        <v>0.03823021946902782</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1867742056399999</v>
+        <v>-0.1899260302163268</v>
       </c>
       <c r="C90">
-        <v>0.2263653799840085</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.2286360682460395</v>
+      </c>
+      <c r="D90">
+        <v>0.006444956858745349</v>
+      </c>
+      <c r="E90">
+        <v>0.1777225849391115</v>
+      </c>
+      <c r="F90">
+        <v>0.1247342158344678</v>
+      </c>
+      <c r="G90">
+        <v>0.08300497256514686</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.125778336872136</v>
+        <v>-0.119790881369379</v>
       </c>
       <c r="C91">
-        <v>0.01974261679790248</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01882776567288328</v>
+      </c>
+      <c r="D91">
+        <v>0.02966215671829954</v>
+      </c>
+      <c r="E91">
+        <v>-0.1235179251559325</v>
+      </c>
+      <c r="F91">
+        <v>-0.1114921129587823</v>
+      </c>
+      <c r="G91">
+        <v>-0.1221295832593759</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1774227485020018</v>
+        <v>-0.1787890535706066</v>
       </c>
       <c r="C92">
-        <v>0.2546268463131304</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.2657676064804423</v>
+      </c>
+      <c r="D92">
+        <v>0.004548295101838318</v>
+      </c>
+      <c r="E92">
+        <v>0.2130254381301029</v>
+      </c>
+      <c r="F92">
+        <v>0.0392081765754155</v>
+      </c>
+      <c r="G92">
+        <v>0.05961070534042288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1807193264741439</v>
+        <v>-0.1875145024949177</v>
       </c>
       <c r="C93">
-        <v>0.2212415766752414</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.2220539597749293</v>
+      </c>
+      <c r="D93">
+        <v>0.01004554531896521</v>
+      </c>
+      <c r="E93">
+        <v>0.119634525774327</v>
+      </c>
+      <c r="F93">
+        <v>-0.001974938888072695</v>
+      </c>
+      <c r="G93">
+        <v>0.05459967456059196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1194895528124532</v>
+        <v>-0.1139302566977006</v>
       </c>
       <c r="C94">
-        <v>-0.03244120838926144</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03255395906758465</v>
+      </c>
+      <c r="D94">
+        <v>-0.01995264774259382</v>
+      </c>
+      <c r="E94">
+        <v>-0.07181611370112663</v>
+      </c>
+      <c r="F94">
+        <v>-0.1147680185833261</v>
+      </c>
+      <c r="G94">
+        <v>-0.07225161621782547</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1188926128260724</v>
+        <v>-0.117730974879148</v>
       </c>
       <c r="C95">
-        <v>-0.1084101410275821</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.1193470743860001</v>
+      </c>
+      <c r="D95">
+        <v>-0.002181742104560824</v>
+      </c>
+      <c r="E95">
+        <v>0.08152761613682689</v>
+      </c>
+      <c r="F95">
+        <v>-0.002041632313322641</v>
+      </c>
+      <c r="G95">
+        <v>0.002823570559577808</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>-0.1160817949534733</v>
+        <v>-0.1135861196218885</v>
       </c>
       <c r="C96">
-        <v>-0.1217336565963229</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.1265167245273862</v>
+      </c>
+      <c r="D96">
+        <v>0.02688868402072964</v>
+      </c>
+      <c r="E96">
+        <v>-0.02267755848644798</v>
+      </c>
+      <c r="F96">
+        <v>-0.04131701402042751</v>
+      </c>
+      <c r="G96">
+        <v>0.1299893854098276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1995362616256802</v>
+        <v>-0.2033672826471024</v>
       </c>
       <c r="C97">
-        <v>-0.01411349924172692</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.006736685759020602</v>
+      </c>
+      <c r="D97">
+        <v>0.2126299031021638</v>
+      </c>
+      <c r="E97">
+        <v>-0.4646866430411612</v>
+      </c>
+      <c r="F97">
+        <v>0.6149603052559393</v>
+      </c>
+      <c r="G97">
+        <v>-0.331138776115717</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1961261451272365</v>
+        <v>-0.2036638605344263</v>
       </c>
       <c r="C98">
-        <v>-0.02310275286862633</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.02520302740110756</v>
+      </c>
+      <c r="D98">
+        <v>0.07692639139463184</v>
+      </c>
+      <c r="E98">
+        <v>-0.0706691715448399</v>
+      </c>
+      <c r="F98">
+        <v>0.08578727522633674</v>
+      </c>
+      <c r="G98">
+        <v>0.134482200904147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.04822370465610175</v>
+        <v>-0.04873273501640413</v>
       </c>
       <c r="C99">
-        <v>-0.06420819384853327</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.06309136401565059</v>
+      </c>
+      <c r="D99">
+        <v>-0.003244917018721122</v>
+      </c>
+      <c r="E99">
+        <v>0.02341595334505585</v>
+      </c>
+      <c r="F99">
+        <v>0.03352095454636805</v>
+      </c>
+      <c r="G99">
+        <v>0.01306575478100185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>-0.09838267592918334</v>
+        <v>-0.09520998980479337</v>
       </c>
       <c r="C100">
-        <v>-0.3208129301886867</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.3039533100782515</v>
+      </c>
+      <c r="D100">
+        <v>0.1259122283527468</v>
+      </c>
+      <c r="E100">
+        <v>0.01148612780778248</v>
+      </c>
+      <c r="F100">
+        <v>0.4588609252613098</v>
+      </c>
+      <c r="G100">
+        <v>0.3728441114526193</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02493649497740466</v>
+        <v>-0.02661403608915801</v>
       </c>
       <c r="C101">
-        <v>-0.05504774719736551</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.05420525357831805</v>
+      </c>
+      <c r="D101">
+        <v>-0.007035943573552048</v>
+      </c>
+      <c r="E101">
+        <v>0.06498408873934194</v>
+      </c>
+      <c r="F101">
+        <v>-0.0002065372654044989</v>
+      </c>
+      <c r="G101">
+        <v>-0.01062278127728178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
